--- a/Ms. Office/Hasil.xlsx
+++ b/Ms. Office/Hasil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amelia Apriliani\Documents\GitHub\Skripsweet\Ms. Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3C355ED9-D5B2-4043-A264-CE6AE4A95594}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FD627370-D4E5-4C37-9693-41C1521FE42A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{86FDDCC2-9673-46E2-8BE7-8909F2A9BEB8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>lena</t>
   </si>
@@ -88,6 +88,24 @@
   </si>
   <si>
     <t>Pesan (karakter)</t>
+  </si>
+  <si>
+    <t>Bit</t>
+  </si>
+  <si>
+    <t>lena_gray</t>
+  </si>
+  <si>
+    <t>512 x 512</t>
+  </si>
+  <si>
+    <t>Gagal</t>
+  </si>
+  <si>
+    <t>amelia</t>
+  </si>
+  <si>
+    <t>1576 x 2364</t>
   </si>
 </sst>
 </file>
@@ -103,7 +121,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +131,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -144,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -160,6 +184,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,13 +509,13 @@
   <dimension ref="A4:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D12" sqref="D12:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="16.140625" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
     <col min="7" max="7" width="31.28515625" style="4" customWidth="1"/>
@@ -712,6 +743,18 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D12" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="I12" s="1" t="s">
         <v>1</v>
       </c>
@@ -732,6 +775,18 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="1">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="6">
         <v>786</v>
@@ -750,6 +805,18 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>24</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="7">
         <v>13249</v>
@@ -764,6 +831,20 @@
         <v>146.36000000000001</v>
       </c>
       <c r="N14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="1">
+        <v>32</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Ms. Office/Hasil.xlsx
+++ b/Ms. Office/Hasil.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amelia Apriliani\Documents\GitHub\Skripsweet\Ms. Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FD627370-D4E5-4C37-9693-41C1521FE42A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{98704D39-11EA-4D1A-92A2-5CC041F608D1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{86FDDCC2-9673-46E2-8BE7-8909F2A9BEB8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{86FDDCC2-9673-46E2-8BE7-8909F2A9BEB8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Pertama" sheetId="1" r:id="rId1"/>
+    <sheet name="Kedua" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="32">
   <si>
     <t>lena</t>
   </si>
@@ -106,6 +107,21 @@
   </si>
   <si>
     <t>1576 x 2364</t>
+  </si>
+  <si>
+    <t>Cropping</t>
+  </si>
+  <si>
+    <t>Pixel Sebelum</t>
+  </si>
+  <si>
+    <t>Pixel Sesudah</t>
+  </si>
+  <si>
+    <t>480 x 494</t>
+  </si>
+  <si>
+    <t>128 x 97</t>
   </si>
 </sst>
 </file>
@@ -168,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -191,6 +207,30 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -508,7 +548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A112E26-B28B-4A65-9FDC-DF2F2069C2A2}">
   <dimension ref="A4:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12:G15"/>
     </sheetView>
   </sheetViews>
@@ -1044,4 +1084,590 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C15BFC-4244-4F5A-B0F0-7A82E9ACB3CA}">
+  <dimension ref="A4:N33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>114</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>786</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="12">
+        <v>257</v>
+      </c>
+      <c r="G6" s="12">
+        <v>32704</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="12">
+        <v>114</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="12">
+        <v>257</v>
+      </c>
+      <c r="M6" s="18"/>
+      <c r="N6" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5">
+        <v>4415</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="12">
+        <v>48</v>
+      </c>
+      <c r="G7" s="12">
+        <v>6096</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="12">
+        <v>786</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="12">
+        <v>257</v>
+      </c>
+      <c r="M7" s="12"/>
+      <c r="N7" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>8832</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="12">
+        <v>2700</v>
+      </c>
+      <c r="G8" s="12">
+        <v>1396237</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="17">
+        <v>4415</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="12">
+        <v>257</v>
+      </c>
+      <c r="M8" s="12"/>
+      <c r="N8" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="5">
+        <v>13249</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="I9" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
+        <v>114</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="12">
+        <v>48</v>
+      </c>
+      <c r="M9" s="12">
+        <v>1</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="12">
+        <v>786</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="12">
+        <v>48</v>
+      </c>
+      <c r="M10" s="12">
+        <v>2.63</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="17">
+        <v>4415</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="12">
+        <v>48</v>
+      </c>
+      <c r="M11" s="12">
+        <v>20.56</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D12" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="12">
+        <v>114</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="12">
+        <v>2700</v>
+      </c>
+      <c r="M12" s="12">
+        <v>1.6</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="12">
+        <v>8</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="12">
+        <v>786</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="12">
+        <v>2700</v>
+      </c>
+      <c r="M13" s="12">
+        <v>2.82</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D14" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="12">
+        <v>24</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="17">
+        <v>8832</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="12">
+        <v>2700</v>
+      </c>
+      <c r="M14" s="12">
+        <v>67.459999999999994</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="12">
+        <v>32</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I19" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="12">
+        <v>114</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I20" s="11"/>
+      <c r="J20" s="12">
+        <v>786</v>
+      </c>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I21" s="11"/>
+      <c r="J21" s="17">
+        <v>4415</v>
+      </c>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I22" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="12">
+        <v>114</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" s="12">
+        <v>48</v>
+      </c>
+      <c r="M22" s="6">
+        <v>1</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I23" s="11"/>
+      <c r="J23" s="12">
+        <v>786</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" s="12">
+        <v>48</v>
+      </c>
+      <c r="M23" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I24" s="11"/>
+      <c r="J24" s="17">
+        <v>4415</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L24" s="12">
+        <v>48</v>
+      </c>
+      <c r="M24" s="6">
+        <v>36</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I25" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" s="12">
+        <v>114</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" s="12">
+        <v>2700</v>
+      </c>
+      <c r="M25" s="12">
+        <v>1.3</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I26" s="11"/>
+      <c r="J26" s="12">
+        <v>786</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" s="12">
+        <v>2700</v>
+      </c>
+      <c r="M26" s="12">
+        <v>3.76</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I27" s="11"/>
+      <c r="J27" s="17">
+        <v>8832</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="12">
+        <v>2700</v>
+      </c>
+      <c r="M27" s="12">
+        <v>144.26</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I31" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M31" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I32" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="12">
+        <v>36.4</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I33" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L33" s="12">
+        <v>694</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Ms. Office/Hasil.xlsx
+++ b/Ms. Office/Hasil.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amelia Apriliani\Documents\GitHub\Skripsweet\Ms. Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{98704D39-11EA-4D1A-92A2-5CC041F608D1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9864A955-EAD8-415D-8C30-70CA468DA033}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{86FDDCC2-9673-46E2-8BE7-8909F2A9BEB8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2" xr2:uid="{86FDDCC2-9673-46E2-8BE7-8909F2A9BEB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Pertama" sheetId="1" r:id="rId1"/>
     <sheet name="Kedua" sheetId="2" r:id="rId2"/>
+    <sheet name="Ketiga" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="32">
   <si>
     <t>lena</t>
   </si>
@@ -1090,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C15BFC-4244-4F5A-B0F0-7A82E9ACB3CA}">
   <dimension ref="A4:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:G8"/>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1670,4 +1671,590 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65136E8F-14CA-4969-815C-CB35A008EC9F}">
+  <dimension ref="A4:N33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>114</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>786</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="12">
+        <v>257</v>
+      </c>
+      <c r="G6" s="12">
+        <v>98112</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="12">
+        <v>114</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="12">
+        <v>257</v>
+      </c>
+      <c r="M6" s="18"/>
+      <c r="N6" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5">
+        <v>4415</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="12">
+        <v>48</v>
+      </c>
+      <c r="G7" s="12">
+        <v>6096</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="12">
+        <v>786</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="12">
+        <v>257</v>
+      </c>
+      <c r="M7" s="12"/>
+      <c r="N7" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>8832</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="12">
+        <v>10600</v>
+      </c>
+      <c r="G8" s="12">
+        <v>1396533</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="17">
+        <v>4415</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="12">
+        <v>257</v>
+      </c>
+      <c r="M8" s="12"/>
+      <c r="N8" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="5">
+        <v>13249</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="I9" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
+        <v>114</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="12">
+        <v>48</v>
+      </c>
+      <c r="M9" s="12">
+        <v>1</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="12">
+        <v>786</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="12">
+        <v>48</v>
+      </c>
+      <c r="M10" s="12">
+        <v>2.63</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="17">
+        <v>4415</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="12">
+        <v>48</v>
+      </c>
+      <c r="M11" s="12">
+        <v>20.56</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D12" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="12">
+        <v>114</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="12">
+        <v>10600</v>
+      </c>
+      <c r="M12" s="12">
+        <v>1.6</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="12">
+        <v>8</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="12">
+        <v>786</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="12">
+        <v>10600</v>
+      </c>
+      <c r="M13" s="12">
+        <v>2.82</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D14" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="12">
+        <v>24</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="17">
+        <v>8832</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="12">
+        <v>10600</v>
+      </c>
+      <c r="M14" s="12">
+        <v>67.459999999999994</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="12">
+        <v>32</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I19" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="12">
+        <v>114</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I20" s="11"/>
+      <c r="J20" s="12">
+        <v>786</v>
+      </c>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I21" s="11"/>
+      <c r="J21" s="17">
+        <v>4415</v>
+      </c>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I22" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="12">
+        <v>114</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" s="12">
+        <v>48</v>
+      </c>
+      <c r="M22" s="6">
+        <v>1</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I23" s="11"/>
+      <c r="J23" s="12">
+        <v>786</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" s="12">
+        <v>48</v>
+      </c>
+      <c r="M23" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I24" s="11"/>
+      <c r="J24" s="17">
+        <v>4415</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L24" s="12">
+        <v>48</v>
+      </c>
+      <c r="M24" s="6">
+        <v>36</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I25" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" s="12">
+        <v>114</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" s="12">
+        <v>10600</v>
+      </c>
+      <c r="M25" s="12">
+        <v>1.3</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I26" s="11"/>
+      <c r="J26" s="12">
+        <v>786</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" s="12">
+        <v>10600</v>
+      </c>
+      <c r="M26" s="12">
+        <v>3.76</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I27" s="11"/>
+      <c r="J27" s="17">
+        <v>8832</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="12">
+        <v>10600</v>
+      </c>
+      <c r="M27" s="12">
+        <v>144.26</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I31" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M31" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I32" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="12">
+        <v>36.4</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I33" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L33" s="12">
+        <v>694</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>